--- a/data/trans_camb/P9_1-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P9_1-Urba-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>-0,09</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 1,37</t>
+          <t>-0,77; 1,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 1,2</t>
+          <t>-2,0; 0,89</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 0,79</t>
+          <t>-0,99; 0,76</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,3%</t>
+          <t>0,29%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,36%</t>
+          <t>-0,43%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,04%</t>
+          <t>-0,09%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 1,4</t>
+          <t>-0,77; 1,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 1,23</t>
+          <t>-2,02; 0,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 0,81</t>
+          <t>-1,01; 0,78</t>
         </is>
       </c>
     </row>
@@ -657,12 +657,12 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>0,18</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>0,26</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,3</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,1</t>
+          <t>0,0; 1,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 1,29</t>
+          <t>-1,3; 1,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 0,87</t>
+          <t>-0,48; 0,87</t>
         </is>
       </c>
     </row>
@@ -703,12 +703,12 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>0,19%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>0,26%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,3%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,12</t>
+          <t>0,0; 1,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 1,31</t>
+          <t>-1,31; 1,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 0,88</t>
+          <t>-0,48; 0,88</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-3,75</t>
+          <t>-1,12</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,61</t>
+          <t>-0,33</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-16,32; 0,29</t>
+          <t>-5,2; 1,88</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 5,35</t>
+          <t>-4,63; 5,13</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,75; 1,51</t>
+          <t>-3,62; 2,72</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-3,79%</t>
+          <t>-1,13%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>0,51%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-1,66%</t>
+          <t>-0,34%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-16,8; 0,3</t>
+          <t>-5,22; 1,91</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 5,78</t>
+          <t>-4,79; 5,55</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-7,85; 1,55</t>
+          <t>-3,66; 2,84</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>0,02</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 0,61</t>
+          <t>-0,57; 0,78</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 1,01</t>
+          <t>-1,2; 0,89</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 0,53</t>
+          <t>-0,59; 0,76</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-0,19%</t>
+          <t>0,13%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-0,02%</t>
+          <t>-0,09%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-0,1%</t>
+          <t>0,02%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,24 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 0,62</t>
+          <t>-0,57; 0,79</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 1,03</t>
+          <t>-1,22; 0,91</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 0,54</t>
+          <t>-0,6; 0,77</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P9_1-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P9_1-Urba-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,29</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-0,43</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-0,09</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0.2900073085278398</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.3772818055023386</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.05890106245350912</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-0,77; 1,38</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-2,0; 0,89</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-0,99; 0,76</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-0.7597525364954861</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-1.930183445338918</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.9680081833197369</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,29%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-0,43%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-0,09%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>1.379343481065143</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.9288557194478547</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.790804176113623</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-0,77; 1,41</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-2,02; 0,91</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-1,01; 0,78</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0.002932801829523891</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>-0.003825494493082599</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.0005964798175796864</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,34</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,18</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,26</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.007613489263097022</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.01946031576460239</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.009773898990048911</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,14</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-1,3; 1,22</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-0,48; 0,87</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.01408739782461969</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.00939082244943314</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.008028206845061824</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0,34%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,19%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,26%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>0.3389477275728692</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.2356308565674148</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.287435804743541</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,15</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-1,31; 1,23</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-0,48; 0,88</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-1.163773460119775</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.3978180750059327</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-1,12</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,49</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,33</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>1.141015431060082</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>1.252080196806672</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.8876040113136554</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-5,2; 1,88</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-4,63; 5,13</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-3,62; 2,72</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>0.003401004904567365</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>0.002375889821873596</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.002891230268160589</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-1,13%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,51%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-0,34%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.01161549283876754</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.004002547253445774</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-5,22; 1,91</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-4,79; 5,55</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-3,66; 2,84</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.01154193928838586</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.01280475344790411</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.008969062377020005</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,93 +775,209 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>0,13</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-0,09</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,02</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-3.599788552151217</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>0.7798616468408404</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-1.43860906279033</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-0,57; 0,78</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-1,2; 0,89</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-0,59; 0,76</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-14.03394300349383</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-4.033643498984151</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-6.641467498676445</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>0,13%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>-0,09%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>0,02%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>0.9435212706106956</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>5.364136568779452</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>2.12767013124816</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-0,57; 0,79</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-1,22; 0,91</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-0,6; 0,77</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>-0.03633457812099363</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>0.008154644713757988</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.0147737244393599</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.1419377655192013</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.0410698872258819</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.06734994208139138</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.00951839783398402</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.05787468374847075</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.02198431079207563</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-0.1699612928191541</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-0.01184830778954149</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-0.08907777794939786</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-1.617520399621179</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-1.049701746777793</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-0.8509051490915492</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>0.6005178516602241</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.9554754279787137</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.6569870965303257</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>-0.001712981121480424</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>-0.0001202898745331127</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>-0.0009011368790490908</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.01628462474112263</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.01057655092630166</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.008585250287563403</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.006050889512351022</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.009744550316536258</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.006670220359268893</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -936,11 +985,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
